--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3380897.377779641</v>
+        <v>3485077.012230712</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7888084.313078334</v>
+        <v>7888084.313078335</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>315.8867849462315</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -716,13 +718,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>218.996818217663</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>143.6487862606221</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>189.4829866158912</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -905,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>78.53251162091254</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>62.02567364332798</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>140.3902756411105</v>
+        <v>39.5253031426516</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>163.1594065778547</v>
+        <v>23.34416082770995</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>69.11451899103609</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>282.2775131266812</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F13" t="n">
-        <v>124.9362388746445</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470136</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>14.90335196317894</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>86.80636739625362</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>55.47031642759653</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>133.8107367464763</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>80.56412890121607</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>40.96105405076448</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>36.86080948088116</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>196.6053542299663</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>133.8410052537958</v>
       </c>
       <c r="V28" t="n">
-        <v>136.784896614956</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2792,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618082</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2892930985862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.58885292964064</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>68.4158405919534</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.13408744447803</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>63.69463930750848</v>
       </c>
     </row>
     <row r="38">
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>199.0770731562682</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>23.41986852521065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>108.3106907504116</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>103.1686991936193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.5893686009544</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1639.433183287319</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C2" t="n">
-        <v>1639.433183287319</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,13 +4330,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.77673900139</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263131</v>
+        <v>2313.82580263309</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287319</v>
+        <v>1923.686470657279</v>
       </c>
     </row>
     <row r="3">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>696.1640136694029</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C4" t="n">
-        <v>527.2278307414961</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4519,19 +4521,19 @@
         <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.59460854119</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W4" t="n">
-        <v>1326.59460854119</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X4" t="n">
-        <v>1098.605057643173</v>
+        <v>880.1988609950312</v>
       </c>
       <c r="Y4" t="n">
-        <v>877.8124784996427</v>
+        <v>659.406281851501</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855438</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="C5" t="n">
-        <v>1311.909787855438</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>953.6440892486878</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>567.8558366504435</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>156.8699318608359</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>145.8378857462365</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218343</v>
@@ -4607,10 +4609,10 @@
         <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2009.323190581319</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1619.183858605507</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.8906159540807</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X7" t="n">
-        <v>703.6831950976108</v>
+        <v>997.2528898752885</v>
       </c>
       <c r="Y7" t="n">
-        <v>482.8906159540807</v>
+        <v>776.4603107317583</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2124.186667467493</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C8" t="n">
-        <v>1755.224150527081</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>1396.958451920331</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792695</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531615</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2510.786507531615</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>431.1278029579779</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>431.1278029579779</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1552.335289707959</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1297.650801502072</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>1008.233631465111</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>1008.233631465111</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y10" t="n">
-        <v>1008.233631465111</v>
+        <v>431.1278029579779</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>741.8431516380886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>591.7265122257528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>443.8134186433597</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5239,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>263.5865657902135</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>3807.864035926977</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>3807.864035926977</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>4359.773766166264</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290469</v>
+        <v>3093.254426444652</v>
       </c>
       <c r="C19" t="n">
-        <v>699.73118040114</v>
+        <v>2924.318243516745</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>2774.20160410441</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>2626.288510522017</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S19" t="n">
-        <v>2323.886757178525</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T19" t="n">
-        <v>2104.285292201466</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U19" t="n">
-        <v>1815.210065545664</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V19" t="n">
-        <v>1560.525577339777</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W19" t="n">
-        <v>1271.108407302817</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X19" t="n">
-        <v>1271.108407302817</v>
+        <v>3410.065251624868</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159287</v>
+        <v>3274.902891274892</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,58 +5743,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913447</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>2490.323821483081</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>3087.702309109633</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>3715.300272664239</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>4267.210002903526</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3260.450525729773</v>
+        <v>1097.958364892466</v>
       </c>
       <c r="C22" t="n">
-        <v>3091.514342801866</v>
+        <v>929.0221819645594</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.397703389531</v>
+        <v>778.9055425522237</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807138</v>
+        <v>630.9924489698305</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309227</v>
+        <v>484.1025014719202</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024107</v>
+        <v>316.9064021868001</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>175.1945710289982</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.25592267304</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>3890.881120601561</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X22" t="n">
-        <v>3662.891569703543</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y22" t="n">
-        <v>3442.098990560013</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5968,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797272</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111724</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,31 +6007,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>2490.323821483081</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>3087.702309109633</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>3715.300272664239</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903526</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3027.428036214346</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C25" t="n">
-        <v>2858.491853286439</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D25" t="n">
-        <v>2708.375213874104</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874104</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053499</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>4309.387051154543</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>4020.311824498741</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V25" t="n">
-        <v>3765.627336292854</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W25" t="n">
-        <v>3476.210166255893</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X25" t="n">
-        <v>3248.220615357876</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y25" t="n">
-        <v>3027.428036214346</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4218.903091397696</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V28" t="n">
-        <v>4080.736529160366</v>
+        <v>1587.583657704828</v>
       </c>
       <c r="W28" t="n">
-        <v>3791.319359123406</v>
+        <v>1298.166487667867</v>
       </c>
       <c r="X28" t="n">
-        <v>3563.329808225389</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y28" t="n">
-        <v>3342.537229081859</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.3544215660705</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>612.4182386381636</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1183.79546553984</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.0028863963103</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,22 +6773,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081858</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153951</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741615</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159222</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2310.810470143821</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>2091.209005166763</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1802.133778510961</v>
       </c>
       <c r="V34" t="n">
-        <v>3932.255922673038</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="W34" t="n">
-        <v>3642.838752636078</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X34" t="n">
-        <v>3414.84920173806</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y34" t="n">
-        <v>3414.84920173806</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6916,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,34 +6952,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>506.2737913123336</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3025.224490384403</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C37" t="n">
-        <v>2856.288307456496</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.288307456496</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874103</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376193</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4670.495690333464</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>4487.640855988368</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4268.03939101131</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>3978.964164355508</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>3724.279676149621</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>3434.86250611266</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X37" t="n">
-        <v>3206.872955214643</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y37" t="n">
-        <v>3206.872955214643</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2598873597757</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>715.2066920307424</v>
       </c>
     </row>
     <row r="41">
@@ -7403,43 +7405,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714574</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2707707770319</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072716</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D46" t="n">
-        <v>240.7066105458822</v>
+        <v>605.645163642942</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>457.7320700605488</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>310.8421225626385</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
   </sheetData>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F13" t="n">
-        <v>20.48480914828677</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>152.3434691354489</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>53.48834544997024</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5559695740481</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>84.77391660561847</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0.7017074173494535</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>245.5619442858265</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>111.7546635373312</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>20.80009609732201</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>152.3434691354484</v>
       </c>
       <c r="V28" t="n">
-        <v>115.352746708872</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>211.1765892730633</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>47.42036229045092</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.2431272522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>112.6104454096912</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.24115926564365</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>154.8900140445863</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>19.50758019582662</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>143.8269525734172</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>178.2123075861794</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>45.44677382459308</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>31.93476969131447</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745262</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745262</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679314.7119745262</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745262</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244625</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244624</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132548</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="F2" t="n">
+      <c r="P2" t="n">
         <v>746610.6047132555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132551</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93403.78684820631</v>
+      </c>
+      <c r="C4" t="n">
         <v>93403.78684820632</v>
       </c>
-      <c r="C4" t="n">
-        <v>93403.78684820633</v>
-      </c>
       <c r="D4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685504</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26439,13 +26441,13 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685504</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770618.8360127297</v>
+        <v>-770618.8360127298</v>
       </c>
       <c r="C6" t="n">
-        <v>558125.9097148628</v>
+        <v>558125.9097148627</v>
       </c>
       <c r="D6" t="n">
-        <v>558125.9097148627</v>
+        <v>558125.9097148629</v>
       </c>
       <c r="E6" t="n">
-        <v>305858.8610051376</v>
+        <v>305858.861005138</v>
       </c>
       <c r="F6" t="n">
+        <v>631271.322812493</v>
+      </c>
+      <c r="G6" t="n">
+        <v>631271.3228124931</v>
+      </c>
+      <c r="H6" t="n">
+        <v>631271.3228124927</v>
+      </c>
+      <c r="I6" t="n">
+        <v>631271.3228124932</v>
+      </c>
+      <c r="J6" t="n">
+        <v>413740.1204152152</v>
+      </c>
+      <c r="K6" t="n">
+        <v>631271.322812493</v>
+      </c>
+      <c r="L6" t="n">
+        <v>631271.3228124933</v>
+      </c>
+      <c r="M6" t="n">
+        <v>546216.2948769813</v>
+      </c>
+      <c r="N6" t="n">
         <v>631271.3228124935</v>
       </c>
-      <c r="G6" t="n">
-        <v>631271.3228124933</v>
-      </c>
-      <c r="H6" t="n">
-        <v>631271.3228124932</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>631271.322812493</v>
+      </c>
+      <c r="P6" t="n">
         <v>631271.3228124934</v>
-      </c>
-      <c r="J6" t="n">
-        <v>413740.1204152154</v>
-      </c>
-      <c r="K6" t="n">
-        <v>631271.3228124931</v>
-      </c>
-      <c r="L6" t="n">
-        <v>631271.3228124934</v>
-      </c>
-      <c r="M6" t="n">
-        <v>546216.2948769814</v>
-      </c>
-      <c r="N6" t="n">
-        <v>631271.3228124933</v>
-      </c>
-      <c r="O6" t="n">
-        <v>631271.3228124934</v>
-      </c>
-      <c r="P6" t="n">
-        <v>631271.322812493</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26795,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,31 +26807,31 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26969,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>38.79625667445146</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>150.734282460806</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>4.966686757590281</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>36.22666877314595</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>216.0752527664079</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>307.705427035141</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>85.3193797479266</v>
+        <v>186.1843522463855</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>218.7709634944071</v>
+        <v>358.5862092445518</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>79.50095402717626</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>3.934325078931693</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31835,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>506.0735392239784</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.544175081759</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209185</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>543.0832917018706</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209185</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>667.8124403339918</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>618.3047484269334</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286707</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>754.000239683233</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>147.4873481937412</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663277</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>287.9685048518523</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>270.4557004614709</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>197.6412480909875</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>171.2123056344834</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>372.0991318096482</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578466</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367785</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410443</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410443</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>525.6784064119735</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>479.7503686470593</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>425.4542490066523</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998997</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.64972152707456</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>150.1270658774933</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>136.4812930471406</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315785</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>57.65947400496596</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3485077.012230712</v>
+        <v>3481064.402216719</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7888084.313078335</v>
+        <v>7888084.313078333</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>218.996818217663</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>361.3697241471381</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>1.957908551559995</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>189.4829866158912</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666726</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>62.02567364332798</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>132.5373350448693</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>39.5253031426516</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>23.34416082770995</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>295.3683824677685</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>69.11451899103609</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174114</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>1.799772605716168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>4.444394634328862</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,13 +1615,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>86.80636739625362</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>85.08368458989425</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.8107367464763</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>80.56412890121607</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>36.86080948088116</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>133.8410052537958</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>75.00788511618082</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>126.6321535627876</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>68.4158405919534</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.69463930750848</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>199.0770731562682</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>108.3106907504116</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>133.5893686009544</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1537.086630593157</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C2" t="n">
-        <v>1168.124113652745</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.034709923659</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2313.82580263309</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1923.686470657279</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7578170212613</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>383.082585960991</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>236.1926384630806</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>68.48980183779958</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>68.48980183779958</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.01298720966</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.595817172699</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X4" t="n">
-        <v>880.1988609950312</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y4" t="n">
-        <v>659.406281851501</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.584018541385</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,16 +4579,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2009.323190581319</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1619.183858605507</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,37 +4649,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>776.4603107317583</v>
+        <v>645.3078929297411</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>645.3078929297411</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>495.1912535174054</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>347.2781599350122</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>200.3882124371019</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.177438504229</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>997.2528898752885</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>776.4603107317583</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116518</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.413029176106</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="D8" t="n">
-        <v>958.147330569356</v>
+        <v>1203.635074063161</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>817.8468214649167</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>406.8609166753092</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.97538618064</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431.1278029579779</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>431.1278029579779</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
         <v>361.3151575124869</v>
@@ -4950,16 +4950,16 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>651.920382101508</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.1278029579779</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876693</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753335</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>430.7826650753335</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>430.7826650753335</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>263.5865657902135</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,22 +5509,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3093.254426444652</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>2924.318243516745</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>2774.20160410441</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>2626.288510522017</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>2479.398563024106</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>2479.398563024106</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>4471.231687421535</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>4182.156460765733</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>3927.471972559846</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>3638.054802522885</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>3410.065251624868</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>3274.902891274892</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1097.958364892466</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.0221819645594</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>778.9055425522237</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>630.9924489698305</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.1025014719202</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>316.9064021868001</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.1945710289982</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934014</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,37 +5977,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>985.7836617409695</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>816.8474788130626</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1842.268145910715</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1587.583657704828</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.166487667867</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1070.17693676985</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>849.3843576263199</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6487,25 +6487,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1901.695539989114</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.011051783227</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2310.810470143821</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2091.209005166763</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1802.133778510961</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1547.449290305074</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1547.449290305074</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407056</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263526</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.5582272005026</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>533.5582272005026</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>715.2066920307424</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,34 +7426,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511905</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232836</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1578.981115722978</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1350.99156482496</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.19898568143</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7639,22 +7639,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2495.978408795859</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>924.6979859831846</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>755.7618030552777</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>605.645163642942</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>457.7320700605488</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>310.8421225626385</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797747</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>221.2652607547083</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>53.48834544997024</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55.21102825632964</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.77391660561847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7017074173494535</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>111.7546635373312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>152.3434691354484</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>211.1765892730633</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>112.6104454096912</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>154.8900140445863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.50758019582662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>178.2123075861794</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>31.93476969131447</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679314.7119745262</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679314.7119745262</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679314.7119745262</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679314.7119745262</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132548</v>
-      </c>
       <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="J2" t="n">
-        <v>746610.604713255</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="M2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132551</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770618.8360127298</v>
+        <v>-770618.8360127297</v>
       </c>
       <c r="C6" t="n">
         <v>558125.9097148627</v>
       </c>
       <c r="D6" t="n">
-        <v>558125.9097148629</v>
+        <v>558125.9097148628</v>
       </c>
       <c r="E6" t="n">
-        <v>305858.861005138</v>
+        <v>305511.4817507811</v>
       </c>
       <c r="F6" t="n">
-        <v>631271.322812493</v>
+        <v>630923.9435581362</v>
       </c>
       <c r="G6" t="n">
-        <v>631271.3228124931</v>
+        <v>630923.9435581364</v>
       </c>
       <c r="H6" t="n">
-        <v>631271.3228124927</v>
+        <v>630923.9435581361</v>
       </c>
       <c r="I6" t="n">
-        <v>631271.3228124932</v>
+        <v>630923.9435581361</v>
       </c>
       <c r="J6" t="n">
-        <v>413740.1204152152</v>
+        <v>413392.7411608587</v>
       </c>
       <c r="K6" t="n">
-        <v>631271.322812493</v>
+        <v>630923.9435581362</v>
       </c>
       <c r="L6" t="n">
-        <v>631271.3228124933</v>
+        <v>630923.9435581361</v>
       </c>
       <c r="M6" t="n">
-        <v>546216.2948769813</v>
+        <v>545868.9156226243</v>
       </c>
       <c r="N6" t="n">
-        <v>631271.3228124935</v>
+        <v>630923.9435581361</v>
       </c>
       <c r="O6" t="n">
-        <v>631271.322812493</v>
+        <v>630923.943558136</v>
       </c>
       <c r="P6" t="n">
-        <v>631271.3228124934</v>
+        <v>630923.9435581364</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26971,37 +26971,37 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>150.734282460806</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>24.86821450891546</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>94.39451185827809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>36.22666877314595</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068133</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>307.705427035141</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>33.48847321415897</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>186.1843522463855</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>358.5862092445518</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>115.5533431856849</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>79.50095402717626</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>17.26178070013006</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28152,13 +28152,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.607718096583367e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28614,13 +28614,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -31603,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31837,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>506.0735392239784</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>543.0832917018706</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>567.5882829286707</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>416.7024900153327</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>519.7862086120936</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>270.4557004614709</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,16 +34450,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34468,10 +34468,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>197.6412480909875</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>372.0991318096482</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>556.7168329578466</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>425.4542490066523</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>285.3607779319995</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>388.4444965287602</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>136.4812930471406</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315785</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
@@ -38116,10 +38116,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.65947400496596</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3481064.402216719</v>
+        <v>3482824.932519506</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79.9153410684994</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>361.3697241471381</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>125.465597548869</v>
       </c>
       <c r="I4" t="n">
-        <v>1.957908551559995</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.10896315666726</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>90.08020970221314</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>132.5373350448693</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>34.987230763697</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>196.1669922308562</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>295.3683824677685</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>71.67037196991727</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>194.9433231500679</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174114</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>171.9586765026956</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>4.444394634328862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187862</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000794</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
-        <v>85.08368458989425</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2608,13 +2608,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V31" t="n">
-        <v>126.6321535627876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>134.5665975534137</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4348,10 +4348,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1706.955462799692</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>530.9956795433841</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="C4" t="n">
-        <v>530.9956795433841</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="D4" t="n">
-        <v>530.9956795433841</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="E4" t="n">
-        <v>383.082585960991</v>
+        <v>605.1635045540689</v>
       </c>
       <c r="F4" t="n">
-        <v>236.1926384630806</v>
+        <v>458.2735570561586</v>
       </c>
       <c r="G4" t="n">
-        <v>68.48980183779958</v>
+        <v>290.5707204308775</v>
       </c>
       <c r="H4" t="n">
-        <v>68.48980183779958</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4518,22 +4518,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658019</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1450.843444452132</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>1161.426274415171</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X4" t="n">
-        <v>933.436723517154</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y4" t="n">
-        <v>712.6441443736238</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1257.755181644084</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C5" t="n">
-        <v>888.7926647036722</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>530.5269660969217</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3234.615710798855</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3028.637963183077</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3028.637963183077</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3028.637963183077</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2675.869307912963</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2675.869307912963</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2285.729975937151</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.3078929297411</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>645.3078929297411</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>495.1912535174054</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>347.2781599350122</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>200.3882124371019</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1891.953910953445</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1700.268026780272</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297411</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1561.900772669911</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1561.900772669911</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1203.635074063161</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>817.8468214649167</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8609166753092</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,22 +4801,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4825,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1854.900232967364</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1854.900232967364</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1448.865759046516</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1159.448589009555</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>931.4590381115378</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>692.9625378792909</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.560501433898</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>1872.470231673185</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>261.8464821474262</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5934,13 +5934,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
         <v>1746.193029533436</v>
@@ -5980,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,31 +6223,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6256,10 +6256,10 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6481,10 +6481,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6882,10 +6882,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
         <v>2035.268256189238</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7499,19 +7499,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>221.2652607547083</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
-        <v>55.21102825632964</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V31" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>46.45968844823085</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745262</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745262</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745262</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132552</v>
@@ -26352,10 +26352,10 @@
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.762949511582091e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685513</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26441,7 +26441,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770618.8360127297</v>
+        <v>-770618.83601273</v>
       </c>
       <c r="C6" t="n">
         <v>558125.9097148627</v>
       </c>
       <c r="D6" t="n">
-        <v>558125.9097148628</v>
+        <v>558125.9097148627</v>
       </c>
       <c r="E6" t="n">
-        <v>305511.4817507811</v>
+        <v>305824.1230797025</v>
       </c>
       <c r="F6" t="n">
-        <v>630923.9435581362</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="G6" t="n">
-        <v>630923.9435581364</v>
+        <v>631236.584887058</v>
       </c>
       <c r="H6" t="n">
-        <v>630923.9435581361</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="I6" t="n">
-        <v>630923.9435581361</v>
+        <v>631236.5848870577</v>
       </c>
       <c r="J6" t="n">
-        <v>413392.7411608587</v>
+        <v>413705.3824897797</v>
       </c>
       <c r="K6" t="n">
-        <v>630923.9435581362</v>
+        <v>631236.5848870574</v>
       </c>
       <c r="L6" t="n">
-        <v>630923.9435581361</v>
+        <v>631236.5848870574</v>
       </c>
       <c r="M6" t="n">
-        <v>545868.9156226243</v>
+        <v>546181.5569515456</v>
       </c>
       <c r="N6" t="n">
-        <v>630923.9435581361</v>
+        <v>631236.5848870574</v>
       </c>
       <c r="O6" t="n">
-        <v>630923.943558136</v>
+        <v>631236.5848870577</v>
       </c>
       <c r="P6" t="n">
-        <v>630923.9435581364</v>
+        <v>631236.5848870574</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>274.7677005521836</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>24.86821450891546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>19.28941736545177</v>
       </c>
       <c r="I4" t="n">
-        <v>94.39451185827809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>332.6248785068133</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>19.10755208596269</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>33.48847321415897</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>53.94492190635033</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>186.5668494326243</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>115.5533431856849</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27912,10 +27912,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>17.26178070013006</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>57.19432017376013</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28152,13 +28152,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.607718096583367e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28614,13 +28614,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -31612,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>548.8125296967492</v>
+        <v>165.2255134509758</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34219,7 +34219,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34234,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>414.838122282419</v>
+        <v>31.25110603664555</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
